--- a/assets/downloads/Config Maker 2024.9.7 FR by KJ.xlsx
+++ b/assets/downloads/Config Maker 2024.9.7 FR by KJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\configmaker\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FC0A2407-E7FC-44D0-A654-633A78216793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFAF11A5-5D66-47D6-BDFB-559181F6A568}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{506F7B6C-A911-0740-BBB1-E050466A6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5170" yWindow="340" windowWidth="13680" windowHeight="11710" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="164" formatCode="[Red]\▲\ 0.00;[Green]\ \▼\ 0.00"/>
     <numFmt numFmtId="165" formatCode="[Red]\▲\ 0.00;[Color50]\ \▼\ 0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +671,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,22 +719,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -732,6 +741,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,45 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1485,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1535,8 +1540,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1585,8 +1595,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1635,8 +1650,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1685,8 +1705,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1735,8 +1760,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1785,8 +1815,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1835,8 +1870,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1885,8 +1925,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1935,8 +1980,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1985,8 +2035,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2035,8 +2090,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2310,8 +2370,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2360,8 +2425,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2410,8 +2480,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2460,8 +2535,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2510,8 +2590,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2560,8 +2645,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2610,8 +2700,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2660,8 +2755,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2710,8 +2810,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2760,8 +2865,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2810,8 +2920,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2860,8 +2975,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2910,8 +3030,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3325,8 +3450,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3375,8 +3505,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3425,8 +3560,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3475,8 +3615,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3525,8 +3670,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3575,8 +3725,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3625,8 +3780,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3675,8 +3835,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3725,8 +3890,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3775,8 +3945,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3825,8 +4000,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3875,8 +4055,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4150,8 +4335,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4200,8 +4390,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4250,8 +4445,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4300,8 +4500,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4350,8 +4555,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4400,8 +4610,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4450,8 +4665,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4500,8 +4720,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4550,8 +4775,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4600,8 +4830,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4650,8 +4885,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4700,8 +4940,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4750,8 +4995,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -5085,49 +5335,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D32E-9FFB-480D-9074-7649C0A05B73}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.91796875" customWidth="1"/>
+    <col min="2" max="2" width="55.9609375" customWidth="1"/>
+    <col min="3" max="4" width="6.58984375" customWidth="1"/>
+    <col min="5" max="5" width="10.0859375" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.14453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46">
         <v>45542</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5154,7 +5404,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
@@ -5175,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
@@ -5196,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
@@ -5217,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
@@ -5238,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
@@ -5259,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
@@ -5280,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
@@ -5301,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
@@ -5322,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
@@ -5343,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
@@ -5364,20 +5614,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
         <v>21</v>
@@ -5424,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="16" t="s">
         <v>22</v>
@@ -5444,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -5465,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="16" t="s">
         <v>24</v>
@@ -5485,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="16" t="s">
         <v>25</v>
@@ -5506,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="16" t="s">
         <v>26</v>
@@ -5527,20 +5777,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21.6" customHeight="1">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -5569,7 +5819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="16" t="s">
         <v>29</v>
@@ -5594,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="16" t="s">
         <v>30</v>
@@ -5619,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="16" t="s">
         <v>31</v>
@@ -5644,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="16" t="s">
         <v>32</v>
@@ -5669,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="16" t="s">
         <v>33</v>
@@ -5694,29 +5944,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="F33" s="34" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="F33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="1:9" ht="20.45" customHeight="1">
+    <row r="34" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -5724,19 +5974,19 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="36">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="36"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="20.45" customHeight="1">
+    <row r="35" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -5744,16 +5994,16 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" ht="20.45" customHeight="1">
+    <row r="36" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
@@ -5761,16 +6011,16 @@
         <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="20.45" customHeight="1">
+    <row r="37" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -5778,27 +6028,27 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="31">
         <v>0</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
-    <row r="39" spans="1:9" ht="20.45" customHeight="1"/>
-    <row r="40" spans="1:9" ht="20.45" customHeight="1">
+    <row r="39" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
@@ -5806,18 +6056,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.45" customHeight="1">
+    <row r="41" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A33:D33"/>
@@ -5825,6 +6070,11 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A24:I24"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -6424,46 +6674,46 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.91796875" customWidth="1"/>
+    <col min="2" max="2" width="55.9609375" customWidth="1"/>
+    <col min="3" max="3" width="6.3203125" customWidth="1"/>
+    <col min="4" max="4" width="4.4375" customWidth="1"/>
+    <col min="5" max="5" width="10.0859375" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.14453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46">
         <v>45491</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6488,17 +6738,17 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>10</v>
@@ -6518,15 +6768,15 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>11</v>
@@ -6546,17 +6796,17 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>12</v>
@@ -6576,17 +6826,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>13</v>
@@ -6606,17 +6856,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>14</v>
@@ -6636,17 +6886,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
         <v>15</v>
@@ -6666,17 +6916,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
@@ -6696,17 +6946,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>17</v>
@@ -6726,17 +6976,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>18</v>
@@ -6757,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>19</v>
@@ -6778,20 +7028,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -6817,7 +7067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
@@ -6838,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>22</v>
@@ -6867,16 +7117,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="23"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>23</v>
@@ -6897,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>24</v>
@@ -6917,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>25</v>
@@ -6938,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
@@ -6959,29 +7209,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="K24" s="54" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="K24" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -7009,17 +7259,17 @@
       <c r="I25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>29</v>
@@ -7043,17 +7293,17 @@
         <f>H26-H4</f>
         <v>-147.92999999999998</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="73"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
         <v>30</v>
@@ -7077,17 +7327,17 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
         <v>31</v>
@@ -7111,17 +7361,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
         <v>32</v>
@@ -7145,17 +7395,17 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
         <v>33</v>
@@ -7179,132 +7429,132 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="74"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="69" t="s">
+      <c r="K32" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="53"/>
     </row>
-    <row r="33" spans="1:9" ht="20.45" customHeight="1">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="F33" s="34" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="F33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="1:9" ht="20.45" customHeight="1">
+    <row r="34" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="20.45" customHeight="1">
+    <row r="35" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" ht="20.45" customHeight="1">
+    <row r="36" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="20.45" customHeight="1">
+    <row r="37" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
     </row>
-    <row r="39" spans="1:9" ht="20.45" customHeight="1"/>
-    <row r="40" spans="1:9" ht="20.45" customHeight="1">
+    <row r="39" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>73</v>
       </c>
@@ -7312,36 +7562,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.45" customHeight="1">
+    <row r="41" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -7351,6 +7578,29 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>
